--- a/biology/Zoologie/Agama_mossambica/Agama_mossambica.xlsx
+++ b/biology/Zoologie/Agama_mossambica/Agama_mossambica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama mossambica est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama mossambica est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Mozambique, au Malawi, en Zambie et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Zimbabwe, au Mozambique, au Malawi, en Zambie et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, le Mozambique.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
